--- a/old/COVID-19_summary.xlsx
+++ b/old/COVID-19_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\tmp\parse_COVID-19\old\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9013BD2A-5BA7-4466-A998-D15CDD267E1C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4F9038-4979-43D9-A8CB-556264E53E9A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="934" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4199,6 +4199,63 @@
                   <c:y val="-0.26461818098644635"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 28.551e</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" baseline="30000">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>-0.142x</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" sz="1400" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>R² = 0.9383</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1400">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>

--- a/old/COVID-19_summary.xlsx
+++ b/old/COVID-19_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\tmp\parse_COVID-19\old\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4F9038-4979-43D9-A8CB-556264E53E9A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD5B93A-94DB-4A51-BD1F-455634E6CD09}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="934" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="934" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="32" r:id="rId1"/>
@@ -762,7 +762,7 @@
                   <a:rPr lang="it-IT" sz="1200" b="0" i="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>Days after March 13, 2020</a:t>
+                  <a:t>Days after March 14, 2020</a:t>
                 </a:r>
                 <a:endParaRPr lang="it-IT" sz="1200">
                   <a:effectLst/>
@@ -1391,7 +1391,7 @@
                   <a:rPr lang="it-IT" sz="1200" b="0" i="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>Days after March 13, 2020</a:t>
+                  <a:t>Days after March 14, 2020</a:t>
                 </a:r>
                 <a:endParaRPr lang="it-IT" sz="1200">
                   <a:effectLst/>
@@ -8570,7 +8570,7 @@
     <tabColor theme="9"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="121" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9209,7 +9209,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81204A6-BF5F-4707-8639-B58903F8FBA7}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>

--- a/old/COVID-19_summary.xlsx
+++ b/old/COVID-19_summary.xlsx
@@ -8,25 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\tmp\parse_COVID-19\old\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD5B93A-94DB-4A51-BD1F-455634E6CD09}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A5AF36-AFBF-4A7B-BC5E-0B3306A42E59}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="934" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="934" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="32" r:id="rId1"/>
-    <sheet name="Lombardia 24-03" sheetId="33" r:id="rId2"/>
-    <sheet name="g Lombardia 24-03 (X^2)" sheetId="34" r:id="rId3"/>
-    <sheet name="g Lombardia 24-03 (EXP)" sheetId="35" r:id="rId4"/>
-    <sheet name="Lombardia 23-03" sheetId="28" r:id="rId5"/>
-    <sheet name="g Lombardia 23-03 (EXP)" sheetId="29" r:id="rId6"/>
-    <sheet name="Lombardia 22-03" sheetId="30" r:id="rId7"/>
-    <sheet name="g Lombardia 22-03 (EXP)" sheetId="31" r:id="rId8"/>
-    <sheet name="Lombardia 21-03" sheetId="12" r:id="rId9"/>
-    <sheet name="g Lombardia 21-03 (EXP)" sheetId="22" r:id="rId10"/>
-    <sheet name="Lombardia 20-03" sheetId="23" r:id="rId11"/>
-    <sheet name="g Lombardia 20-03 (LN)" sheetId="25" r:id="rId12"/>
-    <sheet name="Lombardia 19-03" sheetId="26" r:id="rId13"/>
-    <sheet name="g Lombardia 19-03 (EXP)" sheetId="27" r:id="rId14"/>
+    <sheet name="Lombardia 25-03" sheetId="36" r:id="rId2"/>
+    <sheet name="g Lombardia 25-03 (X^2)" sheetId="37" r:id="rId3"/>
+    <sheet name="g Lombardia 25-03 (EXP)" sheetId="38" r:id="rId4"/>
+    <sheet name="Lombardia 24-03" sheetId="33" r:id="rId5"/>
+    <sheet name="g Lombardia 24-03 (X^2)" sheetId="34" r:id="rId6"/>
+    <sheet name="g Lombardia 24-03 (EXP)" sheetId="35" r:id="rId7"/>
+    <sheet name="Lombardia 23-03" sheetId="28" r:id="rId8"/>
+    <sheet name="g Lombardia 23-03 (EXP)" sheetId="29" r:id="rId9"/>
+    <sheet name="Lombardia 22-03" sheetId="30" r:id="rId10"/>
+    <sheet name="g Lombardia 22-03 (EXP)" sheetId="31" r:id="rId11"/>
+    <sheet name="Lombardia 21-03" sheetId="12" r:id="rId12"/>
+    <sheet name="g Lombardia 21-03 (EXP)" sheetId="22" r:id="rId13"/>
+    <sheet name="Lombardia 20-03" sheetId="23" r:id="rId14"/>
+    <sheet name="g Lombardia 20-03 (LN)" sheetId="25" r:id="rId15"/>
+    <sheet name="Lombardia 19-03" sheetId="26" r:id="rId16"/>
+    <sheet name="g Lombardia 19-03 (EXP)" sheetId="27" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="81">
   <si>
     <t>Data</t>
   </si>
@@ -258,6 +261,33 @@
   <si>
     <t>y = 13.418e(-0.129x)</t>
   </si>
+  <si>
+    <t>25/03/2020</t>
+  </si>
+  <si>
+    <t>Estimated days from peak since 15/03/2020</t>
+  </si>
+  <si>
+    <t>y = 11.219(e-0.119x)</t>
+  </si>
+  <si>
+    <t>y = 0.1131x2 - 2.1831x + 14.764</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>n.a.</t>
+  </si>
+  <si>
+    <t>y = 0.1068x2 - 1.947x + 12.832</t>
+  </si>
 </sst>
 </file>
 
@@ -266,7 +296,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,6 +306,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -303,13 +340,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -328,6 +375,1272 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>LOMBARDIA</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>totale deceduti(i) / totale deceduti(i-10)</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>total deceased(i) / total deceased (i-10)</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.6811763918162084E-3"/>
+                  <c:y val="-7.8898561437210177E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 0.1068x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" baseline="30000">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>2</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t> - 1.947x + 12.832</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" sz="1400" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>R² = 0.9526</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1400">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="it-IT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Lombardia 25-03'!$M$23:$M$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Lombardia 25-03'!$W$23:$W$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10.518518518518519</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.64935064935065</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.3370786516853936</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.5105105105105103</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.4465811965811968</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0162074554294973</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.645161290322581</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2426966292134836</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.325051759834369</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6732348111658455</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3D8C-4632-AB66-59D452E2D6DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="211547168"/>
+        <c:axId val="202768784"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="211547168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1400"/>
+                  <a:t>Giorni trascorsi dal 15/3/2020</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1400">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1200" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Days after March 15, 2020</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT" sz="1200">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="202768784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="202768784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="211547168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>LOMBARDIA</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>totale deceduti(i) / totale deceduti(i-10)</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>total deceased(i) / total deceased (i-10)</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.2339949102523304E-2"/>
+                  <c:y val="-0.11040022826650905"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 11.219e</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" b="1" baseline="30000">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>-0.119x</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>R² = 0.9258</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1400" b="1">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="it-IT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Lombardia 25-03'!$M$23:$M$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Lombardia 25-03'!$W$23:$W$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10.518518518518519</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.64935064935065</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.3370786516853936</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.5105105105105103</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.4465811965811968</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0162074554294973</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.645161290322581</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2426966292134836</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.325051759834369</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6732348111658455</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0AD4-4F9D-BDCB-1B1EB9B71EF2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="211547168"/>
+        <c:axId val="202768784"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="211547168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1400"/>
+                  <a:t>Giorni trascorsi dal 15/3/2020</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1400">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1200" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Days after March 15, 2020</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT" sz="1200">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="202768784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="202768784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="211547168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -965,7 +2278,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -1594,7 +2907,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -2223,7 +3536,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -2795,7 +4108,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -3424,7 +4737,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -4044,7 +5357,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -4913,6 +6226,86 @@
 </file>
 
 <file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8564,13 +9957,1045 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{DB54D20F-8F6B-4BF5-A75C-7060A9A7A4A5}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{E86A2FCD-8547-4EDC-ABA7-D8249DD5E08B}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="121" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8578,6 +11003,32 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{0D09F622-3B08-4016-A6DB-2E26D8D0634E}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{DB54D20F-8F6B-4BF5-A75C-7060A9A7A4A5}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{DDB96DAD-48A1-4D35-9701-6E7BA71EE9E0}">
   <sheetPr>
     <tabColor theme="9"/>
@@ -8590,7 +11041,7 @@
 </chartsheet>
 </file>
 
-<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{8F8AC3FF-F7F6-43AE-B599-2987677BDD39}">
   <sheetPr>
     <tabColor theme="9"/>
@@ -8603,7 +11054,7 @@
 </chartsheet>
 </file>
 
-<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/chartsheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{6163AFED-0AB9-413A-8E5D-55C1877518F7}">
   <sheetPr>
     <tabColor theme="9"/>
@@ -8616,7 +11067,7 @@
 </chartsheet>
 </file>
 
-<file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/chartsheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{946A6D0C-2D9E-4A64-9F48-50B14521F1E0}">
   <sheetPr>
     <tabColor theme="9"/>
@@ -8629,7 +11080,7 @@
 </chartsheet>
 </file>
 
-<file path=xl/chartsheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/chartsheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{0867B63D-DA25-4316-A01F-4819A0895E7C}">
   <sheetPr>
     <tabColor theme="9"/>
@@ -8642,7 +11093,7 @@
 </chartsheet>
 </file>
 
-<file path=xl/chartsheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/chartsheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{60A1EAB3-EF49-4BCE-A2D3-73312D67A9DB}">
   <sheetPr>
     <tabColor theme="9"/>
@@ -8656,6 +11107,72 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9304587" cy="6077107"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B8E84AA-613D-4DBC-9468-85613EE98249}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9304587" cy="6077107"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66A49C33-4C79-4C88-98D9-06F8680FF603}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -8688,7 +11205,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -8721,7 +11238,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -8754,7 +11271,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -8787,7 +11304,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -8820,7 +11337,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -8853,7 +11370,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -9207,213 +11724,2700 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81204A6-BF5F-4707-8639-B58903F8FBA7}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" style="7" customWidth="1"/>
+    <col min="6" max="6" width="7" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="7"/>
+    <col min="10" max="10" width="11.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="J1" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
         <v>43909</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="7">
         <v>28.550999999999998</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="7">
         <v>-0.14199999999999999</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="7">
         <v>0.93830000000000002</v>
       </c>
-      <c r="F2">
+      <c r="G2" s="7">
         <f>INT(0.5-LN(C2)/D2)</f>
         <v>24</v>
       </c>
-      <c r="G2" s="2">
-        <f>A2-10+F2</f>
+      <c r="H2" s="8">
+        <f>A2-10+G2</f>
         <v>43923</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>43910</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="7">
         <v>-8.5510000000000002</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="7">
         <v>25.675000000000001</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="7">
         <v>0.98870000000000002</v>
       </c>
-      <c r="F3">
+      <c r="G3" s="7">
         <f>INT(0.5+EXP((1-D3)/C3))</f>
         <v>18</v>
       </c>
-      <c r="G3" s="2">
-        <f>A3-10+F3</f>
+      <c r="H3" s="8">
+        <f>A3-10+G3</f>
         <v>43918</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>43911</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="7">
         <v>22.387</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="7">
         <v>-0.151</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="7">
         <v>0.97919999999999996</v>
       </c>
-      <c r="F4">
+      <c r="G4" s="7">
         <f>INT(0.5-LN(C4)/D4)</f>
         <v>21</v>
       </c>
-      <c r="G4" s="2">
-        <f>A4-10+F4</f>
+      <c r="H4" s="8">
+        <f>A4-10+G4</f>
         <v>43922</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>43912</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="7">
         <v>18.731000000000002</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="7">
         <v>-0.14499999999999999</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="7">
         <v>0.97489999999999999</v>
       </c>
-      <c r="F5">
-        <f t="shared" ref="F5:F7" si="0">INT(0.5-LN(C5)/D5)</f>
+      <c r="G5" s="7">
+        <f t="shared" ref="G5:G10" si="0">INT(0.5-LN(C5)/D5)</f>
         <v>20</v>
       </c>
-      <c r="G5" s="2">
-        <f>A5-10+F5</f>
+      <c r="H5" s="8">
+        <f>A5-10+G5</f>
         <v>43922</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>43913</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="7">
         <v>15.847</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="7">
         <v>-0.13900000000000001</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="7">
         <v>0.96079999999999999</v>
       </c>
-      <c r="F6">
+      <c r="G6" s="7">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G6" s="2">
-        <f>A6-10+F6</f>
+      <c r="H6" s="8">
+        <f>A6-10+G6</f>
         <v>43923</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
         <v>43914</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="7">
         <v>13.417999999999999</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="7">
         <v>-0.129</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="7">
         <v>0.93889999999999996</v>
       </c>
-      <c r="F7">
+      <c r="G7" s="7">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G7" s="2">
-        <f t="shared" ref="G7" si="1">A7-10+F7</f>
+      <c r="H7" s="8">
+        <f t="shared" ref="H7:H9" si="1">A7-10+G7</f>
         <v>43924</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.11310000000000001</v>
+      </c>
+      <c r="D8" s="7">
+        <v>-2.1831</v>
+      </c>
+      <c r="E8" s="7">
+        <v>14.763999999999999</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.96860000000000002</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="7">
+        <f>D8*D8-4*C8*E8</f>
+        <v>-1.9133079899999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>43915</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="7">
+        <v>11.218999999999999</v>
+      </c>
+      <c r="D9" s="7">
+        <v>-0.11899999999999999</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.92579999999999996</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="H9" s="8">
+        <f t="shared" si="1"/>
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.10680000000000001</v>
+      </c>
+      <c r="D10" s="7">
+        <v>-1.9470000000000001</v>
+      </c>
+      <c r="E10" s="7">
+        <v>12.832000000000001</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.9526</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10" s="7">
+        <f>D10*D10-4*C10*E10</f>
+        <v>-1.6910214000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BE9C507-FF53-4EF1-9CF1-E9379C014A72}">
+  <dimension ref="A1:W50"/>
+  <sheetViews>
+    <sheetView topLeftCell="L13" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="22" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>19</v>
+      </c>
+      <c r="C2">
+        <v>166</v>
+      </c>
+      <c r="D2">
+        <v>1463</v>
+      </c>
+      <c r="E2">
+        <v>172</v>
+      </c>
+      <c r="F2">
+        <v>76</v>
+      </c>
+      <c r="G2">
+        <v>166</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>95</v>
+      </c>
+      <c r="J2">
+        <v>6</v>
+      </c>
+      <c r="K2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>65</v>
+      </c>
+      <c r="D3">
+        <v>3700</v>
+      </c>
+      <c r="E3">
+        <v>240</v>
+      </c>
+      <c r="F3">
+        <v>79</v>
+      </c>
+      <c r="G3">
+        <v>231</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>104</v>
+      </c>
+      <c r="J3">
+        <v>9</v>
+      </c>
+      <c r="K3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>3208</v>
+      </c>
+      <c r="E4">
+        <v>258</v>
+      </c>
+      <c r="F4">
+        <v>79</v>
+      </c>
+      <c r="G4">
+        <v>249</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>104</v>
+      </c>
+      <c r="J4">
+        <v>9</v>
+      </c>
+      <c r="K4">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>41</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>3320</v>
+      </c>
+      <c r="E5">
+        <v>403</v>
+      </c>
+      <c r="F5">
+        <v>172</v>
+      </c>
+      <c r="G5">
+        <v>349</v>
+      </c>
+      <c r="H5">
+        <v>40</v>
+      </c>
+      <c r="I5">
+        <v>213</v>
+      </c>
+      <c r="J5">
+        <v>14</v>
+      </c>
+      <c r="K5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>47</v>
+      </c>
+      <c r="C6">
+        <v>125</v>
+      </c>
+      <c r="D6">
+        <v>4835</v>
+      </c>
+      <c r="E6">
+        <v>531</v>
+      </c>
+      <c r="F6">
+        <v>235</v>
+      </c>
+      <c r="G6">
+        <v>474</v>
+      </c>
+      <c r="H6">
+        <v>40</v>
+      </c>
+      <c r="I6">
+        <v>282</v>
+      </c>
+      <c r="J6">
+        <v>17</v>
+      </c>
+      <c r="K6">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>80</v>
+      </c>
+      <c r="C7">
+        <v>78</v>
+      </c>
+      <c r="D7">
+        <v>5723</v>
+      </c>
+      <c r="E7">
+        <v>615</v>
+      </c>
+      <c r="F7">
+        <v>256</v>
+      </c>
+      <c r="G7">
+        <v>552</v>
+      </c>
+      <c r="H7">
+        <v>40</v>
+      </c>
+      <c r="I7">
+        <v>336</v>
+      </c>
+      <c r="J7">
+        <v>23</v>
+      </c>
+      <c r="K7">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8">
+        <v>106</v>
+      </c>
+      <c r="C8">
+        <v>335</v>
+      </c>
+      <c r="D8">
+        <v>6879</v>
+      </c>
+      <c r="E8">
+        <v>984</v>
+      </c>
+      <c r="F8">
+        <v>406</v>
+      </c>
+      <c r="G8">
+        <v>887</v>
+      </c>
+      <c r="H8">
+        <v>73</v>
+      </c>
+      <c r="I8">
+        <v>512</v>
+      </c>
+      <c r="J8">
+        <v>24</v>
+      </c>
+      <c r="K8">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <v>127</v>
+      </c>
+      <c r="C9">
+        <v>190</v>
+      </c>
+      <c r="D9">
+        <v>7925</v>
+      </c>
+      <c r="E9">
+        <v>1254</v>
+      </c>
+      <c r="F9">
+        <v>478</v>
+      </c>
+      <c r="G9">
+        <v>1077</v>
+      </c>
+      <c r="H9">
+        <v>139</v>
+      </c>
+      <c r="I9">
+        <v>605</v>
+      </c>
+      <c r="J9">
+        <v>38</v>
+      </c>
+      <c r="K9">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10">
+        <v>167</v>
+      </c>
+      <c r="C10">
+        <v>249</v>
+      </c>
+      <c r="D10">
+        <v>9577</v>
+      </c>
+      <c r="E10">
+        <v>1520</v>
+      </c>
+      <c r="F10">
+        <v>698</v>
+      </c>
+      <c r="G10">
+        <v>1326</v>
+      </c>
+      <c r="H10">
+        <v>139</v>
+      </c>
+      <c r="I10">
+        <v>865</v>
+      </c>
+      <c r="J10">
+        <v>55</v>
+      </c>
+      <c r="K10">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <v>209</v>
+      </c>
+      <c r="C11">
+        <v>171</v>
+      </c>
+      <c r="D11">
+        <v>12138</v>
+      </c>
+      <c r="E11">
+        <v>1820</v>
+      </c>
+      <c r="F11">
+        <v>877</v>
+      </c>
+      <c r="G11">
+        <v>1497</v>
+      </c>
+      <c r="H11">
+        <v>250</v>
+      </c>
+      <c r="I11">
+        <v>1086</v>
+      </c>
+      <c r="J11">
+        <v>73</v>
+      </c>
+      <c r="K11">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12">
+        <v>244</v>
+      </c>
+      <c r="C12">
+        <v>280</v>
+      </c>
+      <c r="D12">
+        <v>12354</v>
+      </c>
+      <c r="E12">
+        <v>2251</v>
+      </c>
+      <c r="F12">
+        <v>1169</v>
+      </c>
+      <c r="G12">
+        <v>1777</v>
+      </c>
+      <c r="H12">
+        <v>376</v>
+      </c>
+      <c r="I12">
+        <v>1413</v>
+      </c>
+      <c r="J12">
+        <v>98</v>
+      </c>
+      <c r="K12">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13">
+        <v>309</v>
+      </c>
+      <c r="C13">
+        <v>231</v>
+      </c>
+      <c r="D13">
+        <v>13556</v>
+      </c>
+      <c r="E13">
+        <v>2612</v>
+      </c>
+      <c r="F13">
+        <v>1622</v>
+      </c>
+      <c r="G13">
+        <v>2008</v>
+      </c>
+      <c r="H13">
+        <v>469</v>
+      </c>
+      <c r="I13">
+        <v>1931</v>
+      </c>
+      <c r="J13">
+        <v>135</v>
+      </c>
+      <c r="K13">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14">
+        <v>359</v>
+      </c>
+      <c r="C14">
+        <v>734</v>
+      </c>
+      <c r="D14">
+        <v>15778</v>
+      </c>
+      <c r="E14">
+        <v>3420</v>
+      </c>
+      <c r="F14">
+        <v>1661</v>
+      </c>
+      <c r="G14">
+        <v>2742</v>
+      </c>
+      <c r="H14">
+        <v>524</v>
+      </c>
+      <c r="I14">
+        <v>2020</v>
+      </c>
+      <c r="J14">
+        <v>154</v>
+      </c>
+      <c r="K14">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15">
+        <v>399</v>
+      </c>
+      <c r="C15">
+        <v>630</v>
+      </c>
+      <c r="D15">
+        <v>18534</v>
+      </c>
+      <c r="E15">
+        <v>4189</v>
+      </c>
+      <c r="F15">
+        <v>2217</v>
+      </c>
+      <c r="G15">
+        <v>3372</v>
+      </c>
+      <c r="H15">
+        <v>550</v>
+      </c>
+      <c r="I15">
+        <v>2616</v>
+      </c>
+      <c r="J15">
+        <v>267</v>
+      </c>
+      <c r="K15">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16">
+        <v>440</v>
+      </c>
+      <c r="C16">
+        <v>1118</v>
+      </c>
+      <c r="D16">
+        <v>20135</v>
+      </c>
+      <c r="E16">
+        <v>5469</v>
+      </c>
+      <c r="F16">
+        <v>2802</v>
+      </c>
+      <c r="G16">
+        <v>4490</v>
+      </c>
+      <c r="H16">
+        <v>646</v>
+      </c>
+      <c r="I16">
+        <v>3242</v>
+      </c>
+      <c r="J16">
+        <v>333</v>
+      </c>
+      <c r="K16">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17">
+        <v>466</v>
+      </c>
+      <c r="C17">
+        <v>-63</v>
+      </c>
+      <c r="D17">
+        <v>21479</v>
+      </c>
+      <c r="E17">
+        <v>5791</v>
+      </c>
+      <c r="F17">
+        <v>3319</v>
+      </c>
+      <c r="G17">
+        <v>4427</v>
+      </c>
+      <c r="H17">
+        <v>896</v>
+      </c>
+      <c r="I17">
+        <v>3785</v>
+      </c>
+      <c r="J17">
+        <v>468</v>
+      </c>
+      <c r="K17">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18">
+        <v>560</v>
+      </c>
+      <c r="C18">
+        <v>1336</v>
+      </c>
+      <c r="D18">
+        <v>25629</v>
+      </c>
+      <c r="E18">
+        <v>7280</v>
+      </c>
+      <c r="F18">
+        <v>3852</v>
+      </c>
+      <c r="G18">
+        <v>5763</v>
+      </c>
+      <c r="H18">
+        <v>900</v>
+      </c>
+      <c r="I18">
+        <v>4412</v>
+      </c>
+      <c r="J18">
+        <v>617</v>
+      </c>
+      <c r="K18">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19">
+        <v>605</v>
+      </c>
+      <c r="C19">
+        <v>1133</v>
+      </c>
+      <c r="D19">
+        <v>29534</v>
+      </c>
+      <c r="E19">
+        <v>8725</v>
+      </c>
+      <c r="F19">
+        <v>4247</v>
+      </c>
+      <c r="G19">
+        <v>6896</v>
+      </c>
+      <c r="H19">
+        <v>1085</v>
+      </c>
+      <c r="I19">
+        <v>4852</v>
+      </c>
+      <c r="J19">
+        <v>744</v>
+      </c>
+      <c r="K19">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20">
+        <v>650</v>
+      </c>
+      <c r="C20">
+        <v>836</v>
+      </c>
+      <c r="D20">
+        <v>32700</v>
+      </c>
+      <c r="E20">
+        <v>9820</v>
+      </c>
+      <c r="F20">
+        <v>4435</v>
+      </c>
+      <c r="G20">
+        <v>7732</v>
+      </c>
+      <c r="H20">
+        <v>1198</v>
+      </c>
+      <c r="I20">
+        <v>5085</v>
+      </c>
+      <c r="J20">
+        <v>890</v>
+      </c>
+      <c r="K20">
+        <v>2647</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" ref="N20:N32" si="0">J20/J19</f>
+        <v>1.196236559139785</v>
+      </c>
+      <c r="O20" s="1">
+        <f t="shared" ref="O20:O32" si="1">J20/J18</f>
+        <v>1.4424635332252835</v>
+      </c>
+      <c r="P20" s="1">
+        <f t="shared" ref="P20:P32" si="2">J20/J17</f>
+        <v>1.9017094017094016</v>
+      </c>
+      <c r="Q20" s="1">
+        <f t="shared" ref="Q20:Q32" si="3">J20/J16</f>
+        <v>2.6726726726726726</v>
+      </c>
+      <c r="R20" s="1">
+        <f t="shared" ref="R20:R32" si="4">J20/J15</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="S20" s="1">
+        <f t="shared" ref="S20:S32" si="5">J20/J14</f>
+        <v>5.779220779220779</v>
+      </c>
+      <c r="T20" s="1">
+        <f t="shared" ref="T20:T32" si="6">J20/J13</f>
+        <v>6.5925925925925926</v>
+      </c>
+      <c r="U20" s="1">
+        <f t="shared" ref="U20:U32" si="7">J20/J12</f>
+        <v>9.0816326530612237</v>
+      </c>
+      <c r="V20" s="1">
+        <f t="shared" ref="V20:V32" si="8">J20/J11</f>
+        <v>12.191780821917808</v>
+      </c>
+      <c r="W20" s="1">
+        <f t="shared" ref="W20:W32" si="9">J20/J10</f>
+        <v>16.181818181818183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21">
+        <v>732</v>
+      </c>
+      <c r="C21">
+        <v>1327</v>
+      </c>
+      <c r="D21">
+        <v>37138</v>
+      </c>
+      <c r="E21">
+        <v>11685</v>
+      </c>
+      <c r="F21">
+        <v>4898</v>
+      </c>
+      <c r="G21">
+        <v>9059</v>
+      </c>
+      <c r="H21">
+        <v>1660</v>
+      </c>
+      <c r="I21">
+        <v>5630</v>
+      </c>
+      <c r="J21">
+        <v>966</v>
+      </c>
+      <c r="K21">
+        <v>3429</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0853932584269663</v>
+      </c>
+      <c r="O21" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2983870967741935</v>
+      </c>
+      <c r="P21" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5656401944894651</v>
+      </c>
+      <c r="Q21" s="1">
+        <f t="shared" si="3"/>
+        <v>2.0641025641025643</v>
+      </c>
+      <c r="R21" s="1">
+        <f t="shared" si="4"/>
+        <v>2.900900900900901</v>
+      </c>
+      <c r="S21" s="1">
+        <f t="shared" si="5"/>
+        <v>3.6179775280898876</v>
+      </c>
+      <c r="T21" s="1">
+        <f t="shared" si="6"/>
+        <v>6.2727272727272725</v>
+      </c>
+      <c r="U21" s="1">
+        <f t="shared" si="7"/>
+        <v>7.1555555555555559</v>
+      </c>
+      <c r="V21" s="1">
+        <f t="shared" si="8"/>
+        <v>9.8571428571428577</v>
+      </c>
+      <c r="W21" s="1">
+        <f t="shared" si="9"/>
+        <v>13.232876712328768</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22">
+        <v>767</v>
+      </c>
+      <c r="C22">
+        <v>984</v>
+      </c>
+      <c r="D22">
+        <v>40369</v>
+      </c>
+      <c r="E22">
+        <v>13272</v>
+      </c>
+      <c r="F22">
+        <v>5500</v>
+      </c>
+      <c r="G22">
+        <v>10043</v>
+      </c>
+      <c r="H22">
+        <v>2011</v>
+      </c>
+      <c r="I22">
+        <v>6267</v>
+      </c>
+      <c r="J22">
+        <v>1218</v>
+      </c>
+      <c r="K22">
+        <v>3776</v>
+      </c>
+      <c r="N22" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2608695652173914</v>
+      </c>
+      <c r="O22" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3685393258426966</v>
+      </c>
+      <c r="P22" s="1">
+        <f t="shared" si="2"/>
+        <v>1.6370967741935485</v>
+      </c>
+      <c r="Q22" s="1">
+        <f t="shared" si="3"/>
+        <v>1.9740680713128038</v>
+      </c>
+      <c r="R22" s="1">
+        <f t="shared" si="4"/>
+        <v>2.6025641025641026</v>
+      </c>
+      <c r="S22" s="1">
+        <f t="shared" si="5"/>
+        <v>3.6576576576576576</v>
+      </c>
+      <c r="T22" s="1">
+        <f t="shared" si="6"/>
+        <v>4.5617977528089888</v>
+      </c>
+      <c r="U22" s="1">
+        <f t="shared" si="7"/>
+        <v>7.9090909090909092</v>
+      </c>
+      <c r="V22" s="1">
+        <f t="shared" si="8"/>
+        <v>9.0222222222222221</v>
+      </c>
+      <c r="W22" s="1">
+        <f t="shared" si="9"/>
+        <v>12.428571428571429</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23">
+        <v>823</v>
+      </c>
+      <c r="C23">
+        <v>818</v>
+      </c>
+      <c r="D23">
+        <v>43565</v>
+      </c>
+      <c r="E23">
+        <v>14649</v>
+      </c>
+      <c r="F23">
+        <v>6171</v>
+      </c>
+      <c r="G23">
+        <v>10861</v>
+      </c>
+      <c r="H23">
+        <v>2368</v>
+      </c>
+      <c r="I23">
+        <v>6994</v>
+      </c>
+      <c r="J23">
+        <v>1420</v>
+      </c>
+      <c r="K23">
+        <v>3867</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1658456486042692</v>
+      </c>
+      <c r="O23" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4699792960662525</v>
+      </c>
+      <c r="P23" s="1">
+        <f t="shared" si="2"/>
+        <v>1.595505617977528</v>
+      </c>
+      <c r="Q23" s="1">
+        <f t="shared" si="3"/>
+        <v>1.9086021505376345</v>
+      </c>
+      <c r="R23" s="1">
+        <f t="shared" si="4"/>
+        <v>2.3014586709886546</v>
+      </c>
+      <c r="S23" s="1">
+        <f t="shared" si="5"/>
+        <v>3.0341880341880341</v>
+      </c>
+      <c r="T23" s="1">
+        <f t="shared" si="6"/>
+        <v>4.2642642642642645</v>
+      </c>
+      <c r="U23" s="1">
+        <f t="shared" si="7"/>
+        <v>5.3183520599250933</v>
+      </c>
+      <c r="V23" s="1">
+        <f t="shared" si="8"/>
+        <v>9.220779220779221</v>
+      </c>
+      <c r="W23" s="1">
+        <f t="shared" si="9"/>
+        <v>10.518518518518519</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24">
+        <v>879</v>
+      </c>
+      <c r="C24">
+        <v>1234</v>
+      </c>
+      <c r="D24">
+        <v>46449</v>
+      </c>
+      <c r="E24">
+        <v>16220</v>
+      </c>
+      <c r="F24">
+        <v>6953</v>
+      </c>
+      <c r="G24">
+        <v>12095</v>
+      </c>
+      <c r="H24">
+        <v>2485</v>
+      </c>
+      <c r="I24">
+        <v>7832</v>
+      </c>
+      <c r="J24">
+        <v>1640</v>
+      </c>
+      <c r="K24">
+        <v>4263</v>
+      </c>
+      <c r="M24">
+        <v>2</v>
+      </c>
+      <c r="N24" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1549295774647887</v>
+      </c>
+      <c r="O24" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3464696223316912</v>
+      </c>
+      <c r="P24" s="1">
+        <f t="shared" si="2"/>
+        <v>1.6977225672877847</v>
+      </c>
+      <c r="Q24" s="1">
+        <f t="shared" si="3"/>
+        <v>1.8426966292134832</v>
+      </c>
+      <c r="R24" s="1">
+        <f t="shared" si="4"/>
+        <v>2.204301075268817</v>
+      </c>
+      <c r="S24" s="1">
+        <f t="shared" si="5"/>
+        <v>2.6580226904376012</v>
+      </c>
+      <c r="T24" s="1">
+        <f t="shared" si="6"/>
+        <v>3.5042735042735043</v>
+      </c>
+      <c r="U24" s="1">
+        <f t="shared" si="7"/>
+        <v>4.924924924924925</v>
+      </c>
+      <c r="V24" s="1">
+        <f t="shared" si="8"/>
+        <v>6.1423220973782771</v>
+      </c>
+      <c r="W24" s="1">
+        <f t="shared" si="9"/>
+        <v>10.64935064935065</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25">
+        <v>924</v>
+      </c>
+      <c r="C25">
+        <v>171</v>
+      </c>
+      <c r="D25">
+        <v>48983</v>
+      </c>
+      <c r="E25">
+        <v>17713</v>
+      </c>
+      <c r="F25">
+        <v>7285</v>
+      </c>
+      <c r="G25">
+        <v>12266</v>
+      </c>
+      <c r="H25">
+        <v>3488</v>
+      </c>
+      <c r="I25">
+        <v>8209</v>
+      </c>
+      <c r="J25">
+        <v>1959</v>
+      </c>
+      <c r="K25">
+        <v>4057</v>
+      </c>
+      <c r="M25">
+        <v>3</v>
+      </c>
+      <c r="N25" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1945121951219513</v>
+      </c>
+      <c r="O25" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3795774647887324</v>
+      </c>
+      <c r="P25" s="1">
+        <f t="shared" si="2"/>
+        <v>1.6083743842364533</v>
+      </c>
+      <c r="Q25" s="1">
+        <f t="shared" si="3"/>
+        <v>2.0279503105590062</v>
+      </c>
+      <c r="R25" s="1">
+        <f t="shared" si="4"/>
+        <v>2.2011235955056181</v>
+      </c>
+      <c r="S25" s="1">
+        <f t="shared" si="5"/>
+        <v>2.6330645161290325</v>
+      </c>
+      <c r="T25" s="1">
+        <f t="shared" si="6"/>
+        <v>3.1750405186385739</v>
+      </c>
+      <c r="U25" s="1">
+        <f t="shared" si="7"/>
+        <v>4.1858974358974361</v>
+      </c>
+      <c r="V25" s="1">
+        <f t="shared" si="8"/>
+        <v>5.8828828828828827</v>
+      </c>
+      <c r="W25" s="1">
+        <f t="shared" si="9"/>
+        <v>7.3370786516853936</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26">
+        <v>1006</v>
+      </c>
+      <c r="C26">
+        <v>1672</v>
+      </c>
+      <c r="D26">
+        <v>52244</v>
+      </c>
+      <c r="E26">
+        <v>19884</v>
+      </c>
+      <c r="F26">
+        <v>7387</v>
+      </c>
+      <c r="G26">
+        <v>13938</v>
+      </c>
+      <c r="H26">
+        <v>3778</v>
+      </c>
+      <c r="I26">
+        <v>8393</v>
+      </c>
+      <c r="J26">
+        <v>2168</v>
+      </c>
+      <c r="K26">
+        <v>5545</v>
+      </c>
+      <c r="M26">
+        <v>4</v>
+      </c>
+      <c r="N26" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1066870852475752</v>
+      </c>
+      <c r="O26" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3219512195121952</v>
+      </c>
+      <c r="P26" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5267605633802817</v>
+      </c>
+      <c r="Q26" s="1">
+        <f t="shared" si="3"/>
+        <v>1.7799671592775042</v>
+      </c>
+      <c r="R26" s="1">
+        <f t="shared" si="4"/>
+        <v>2.2443064182194616</v>
+      </c>
+      <c r="S26" s="1">
+        <f t="shared" si="5"/>
+        <v>2.4359550561797754</v>
+      </c>
+      <c r="T26" s="1">
+        <f t="shared" si="6"/>
+        <v>2.913978494623656</v>
+      </c>
+      <c r="U26" s="1">
+        <f t="shared" si="7"/>
+        <v>3.5137763371150728</v>
+      </c>
+      <c r="V26" s="1">
+        <f t="shared" si="8"/>
+        <v>4.6324786324786329</v>
+      </c>
+      <c r="W26" s="1">
+        <f t="shared" si="9"/>
+        <v>6.5105105105105103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27">
+        <v>1050</v>
+      </c>
+      <c r="C27">
+        <v>1482</v>
+      </c>
+      <c r="D27">
+        <v>57174</v>
+      </c>
+      <c r="E27">
+        <v>22264</v>
+      </c>
+      <c r="F27">
+        <v>7735</v>
+      </c>
+      <c r="G27">
+        <v>15420</v>
+      </c>
+      <c r="H27">
+        <v>4295</v>
+      </c>
+      <c r="I27">
+        <v>8785</v>
+      </c>
+      <c r="J27">
+        <v>2549</v>
+      </c>
+      <c r="K27">
+        <v>6635</v>
+      </c>
+      <c r="M27">
+        <v>5</v>
+      </c>
+      <c r="N27" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1757380073800738</v>
+      </c>
+      <c r="O27" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3011740684022461</v>
+      </c>
+      <c r="P27" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5542682926829268</v>
+      </c>
+      <c r="Q27" s="1">
+        <f t="shared" si="3"/>
+        <v>1.7950704225352112</v>
+      </c>
+      <c r="R27" s="1">
+        <f t="shared" si="4"/>
+        <v>2.0927750410509032</v>
+      </c>
+      <c r="S27" s="1">
+        <f t="shared" si="5"/>
+        <v>2.6387163561076603</v>
+      </c>
+      <c r="T27" s="1">
+        <f t="shared" si="6"/>
+        <v>2.8640449438202249</v>
+      </c>
+      <c r="U27" s="1">
+        <f t="shared" si="7"/>
+        <v>3.4260752688172045</v>
+      </c>
+      <c r="V27" s="1">
+        <f t="shared" si="8"/>
+        <v>4.1312803889789302</v>
+      </c>
+      <c r="W27" s="1">
+        <f t="shared" si="9"/>
+        <v>5.4465811965811968</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28">
+        <v>1093</v>
+      </c>
+      <c r="C28">
+        <v>1950</v>
+      </c>
+      <c r="D28">
+        <v>66730</v>
+      </c>
+      <c r="E28">
+        <v>25515</v>
+      </c>
+      <c r="F28">
+        <v>8258</v>
+      </c>
+      <c r="G28">
+        <v>17370</v>
+      </c>
+      <c r="H28">
+        <v>5050</v>
+      </c>
+      <c r="I28">
+        <v>9351</v>
+      </c>
+      <c r="J28">
+        <v>3095</v>
+      </c>
+      <c r="K28">
+        <v>8019</v>
+      </c>
+      <c r="M28">
+        <v>6</v>
+      </c>
+      <c r="N28" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2142016477049824</v>
+      </c>
+      <c r="O28" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4275830258302582</v>
+      </c>
+      <c r="P28" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5798876978050025</v>
+      </c>
+      <c r="Q28" s="1">
+        <f t="shared" si="3"/>
+        <v>1.8871951219512195</v>
+      </c>
+      <c r="R28" s="1">
+        <f t="shared" si="4"/>
+        <v>2.1795774647887325</v>
+      </c>
+      <c r="S28" s="1">
+        <f t="shared" si="5"/>
+        <v>2.5410509031198685</v>
+      </c>
+      <c r="T28" s="1">
+        <f t="shared" si="6"/>
+        <v>3.2039337474120084</v>
+      </c>
+      <c r="U28" s="1">
+        <f t="shared" si="7"/>
+        <v>3.4775280898876404</v>
+      </c>
+      <c r="V28" s="1">
+        <f t="shared" si="8"/>
+        <v>4.15994623655914</v>
+      </c>
+      <c r="W28" s="1">
+        <f t="shared" si="9"/>
+        <v>5.0162074554294973</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29">
+        <v>1142</v>
+      </c>
+      <c r="C29">
+        <v>515</v>
+      </c>
+      <c r="D29">
+        <v>70598</v>
+      </c>
+      <c r="E29">
+        <v>27206</v>
+      </c>
+      <c r="F29">
+        <v>9439</v>
+      </c>
+      <c r="G29">
+        <v>17885</v>
+      </c>
+      <c r="H29">
+        <v>5865</v>
+      </c>
+      <c r="I29">
+        <v>10581</v>
+      </c>
+      <c r="J29">
+        <v>3456</v>
+      </c>
+      <c r="K29">
+        <v>7304</v>
+      </c>
+      <c r="M29">
+        <v>7</v>
+      </c>
+      <c r="N29" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1166397415185783</v>
+      </c>
+      <c r="O29" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3558258140447235</v>
+      </c>
+      <c r="P29" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5940959409594095</v>
+      </c>
+      <c r="Q29" s="1">
+        <f t="shared" si="3"/>
+        <v>1.7641653905053598</v>
+      </c>
+      <c r="R29" s="1">
+        <f t="shared" si="4"/>
+        <v>2.1073170731707318</v>
+      </c>
+      <c r="S29" s="1">
+        <f t="shared" si="5"/>
+        <v>2.4338028169014083</v>
+      </c>
+      <c r="T29" s="1">
+        <f t="shared" si="6"/>
+        <v>2.8374384236453203</v>
+      </c>
+      <c r="U29" s="1">
+        <f t="shared" si="7"/>
+        <v>3.5776397515527951</v>
+      </c>
+      <c r="V29" s="1">
+        <f t="shared" si="8"/>
+        <v>3.8831460674157303</v>
+      </c>
+      <c r="W29" s="1">
+        <f t="shared" si="9"/>
+        <v>4.645161290322581</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30">
+        <v>1183</v>
+      </c>
+      <c r="C30">
+        <v>1025</v>
+      </c>
+      <c r="D30">
+        <v>73242</v>
+      </c>
+      <c r="E30">
+        <v>28761</v>
+      </c>
+      <c r="F30">
+        <v>9266</v>
+      </c>
+      <c r="G30">
+        <v>18910</v>
+      </c>
+      <c r="H30">
+        <v>6075</v>
+      </c>
+      <c r="I30">
+        <v>10449</v>
+      </c>
+      <c r="J30">
+        <v>3776</v>
+      </c>
+      <c r="K30">
+        <v>8461</v>
+      </c>
+      <c r="M30">
+        <v>8</v>
+      </c>
+      <c r="N30" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0925925925925926</v>
+      </c>
+      <c r="O30" s="1">
+        <f t="shared" si="1"/>
+        <v>1.220032310177706</v>
+      </c>
+      <c r="P30" s="1">
+        <f t="shared" si="2"/>
+        <v>1.4813652412710867</v>
+      </c>
+      <c r="Q30" s="1">
+        <f t="shared" si="3"/>
+        <v>1.7416974169741697</v>
+      </c>
+      <c r="R30" s="1">
+        <f t="shared" si="4"/>
+        <v>1.9275140377743747</v>
+      </c>
+      <c r="S30" s="1">
+        <f t="shared" si="5"/>
+        <v>2.3024390243902437</v>
+      </c>
+      <c r="T30" s="1">
+        <f t="shared" si="6"/>
+        <v>2.6591549295774648</v>
+      </c>
+      <c r="U30" s="1">
+        <f t="shared" si="7"/>
+        <v>3.1001642036124797</v>
+      </c>
+      <c r="V30" s="1">
+        <f t="shared" si="8"/>
+        <v>3.9089026915113871</v>
+      </c>
+      <c r="W30" s="1">
+        <f t="shared" si="9"/>
+        <v>4.2426966292134836</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31">
+        <v>1194</v>
+      </c>
+      <c r="C31">
+        <v>958</v>
+      </c>
+      <c r="D31">
+        <v>76695</v>
+      </c>
+      <c r="E31">
+        <v>30703</v>
+      </c>
+      <c r="F31">
+        <v>9711</v>
+      </c>
+      <c r="G31">
+        <v>19868</v>
+      </c>
+      <c r="H31">
+        <v>6657</v>
+      </c>
+      <c r="I31">
+        <v>10905</v>
+      </c>
+      <c r="J31">
+        <v>4178</v>
+      </c>
+      <c r="K31">
+        <v>8963</v>
+      </c>
+      <c r="M31">
+        <v>9</v>
+      </c>
+      <c r="N31" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1064618644067796</v>
+      </c>
+      <c r="O31" s="1">
+        <f t="shared" si="1"/>
+        <v>1.208912037037037</v>
+      </c>
+      <c r="P31" s="1">
+        <f t="shared" si="2"/>
+        <v>1.349919224555735</v>
+      </c>
+      <c r="Q31" s="1">
+        <f t="shared" si="3"/>
+        <v>1.6390741467242056</v>
+      </c>
+      <c r="R31" s="1">
+        <f t="shared" si="4"/>
+        <v>1.9271217712177122</v>
+      </c>
+      <c r="S31" s="1">
+        <f t="shared" si="5"/>
+        <v>2.1327207759060745</v>
+      </c>
+      <c r="T31" s="1">
+        <f t="shared" si="6"/>
+        <v>2.5475609756097559</v>
+      </c>
+      <c r="U31" s="1">
+        <f t="shared" si="7"/>
+        <v>2.9422535211267604</v>
+      </c>
+      <c r="V31" s="1">
+        <f t="shared" si="8"/>
+        <v>3.4302134646962235</v>
+      </c>
+      <c r="W31" s="1">
+        <f t="shared" si="9"/>
+        <v>4.325051759834369</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32">
+        <v>1236</v>
+      </c>
+      <c r="C32">
+        <v>723</v>
+      </c>
+      <c r="D32">
+        <v>81666</v>
+      </c>
+      <c r="E32">
+        <v>32346</v>
+      </c>
+      <c r="F32">
+        <v>10026</v>
+      </c>
+      <c r="G32">
+        <v>20591</v>
+      </c>
+      <c r="H32">
+        <v>7281</v>
+      </c>
+      <c r="I32">
+        <v>11262</v>
+      </c>
+      <c r="J32">
+        <v>4474</v>
+      </c>
+      <c r="K32">
+        <v>9329</v>
+      </c>
+      <c r="M32">
+        <v>10</v>
+      </c>
+      <c r="N32" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0708472953566299</v>
+      </c>
+      <c r="O32" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1848516949152543</v>
+      </c>
+      <c r="P32" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2945601851851851</v>
+      </c>
+      <c r="Q32" s="1">
+        <f t="shared" si="3"/>
+        <v>1.445557350565428</v>
+      </c>
+      <c r="R32" s="1">
+        <f t="shared" si="4"/>
+        <v>1.7551981169085915</v>
+      </c>
+      <c r="S32" s="1">
+        <f t="shared" si="5"/>
+        <v>2.0636531365313653</v>
+      </c>
+      <c r="T32" s="1">
+        <f t="shared" si="6"/>
+        <v>2.2838182746299132</v>
+      </c>
+      <c r="U32" s="1">
+        <f t="shared" si="7"/>
+        <v>2.7280487804878049</v>
+      </c>
+      <c r="V32" s="1">
+        <f t="shared" si="8"/>
+        <v>3.1507042253521127</v>
+      </c>
+      <c r="W32" s="1">
+        <f t="shared" si="9"/>
+        <v>3.6732348111658455</v>
+      </c>
+    </row>
+    <row r="35" spans="11:23" x14ac:dyDescent="0.25">
+      <c r="K35" t="s">
+        <v>50</v>
+      </c>
+      <c r="M35" t="s">
+        <v>51</v>
+      </c>
+      <c r="N35">
+        <f>EXP(INDEX(LINEST(LN(N23:N32),M23:M32),1,2))</f>
+        <v>1.1954293804104417</v>
+      </c>
+      <c r="O35">
+        <f>EXP(INDEX(LINEST(LN(O23:O32),M23:M32),1,2))</f>
+        <v>1.4641087896957325</v>
+      </c>
+      <c r="P35">
+        <f>EXP(INDEX(LINEST(LN(P23:P32),M23:M32),1,2))</f>
+        <v>1.7265318102662801</v>
+      </c>
+      <c r="Q35">
+        <f>EXP(INDEX(LINEST(LN(Q23:Q32),M23:M32),1,2))</f>
+        <v>2.0338334438230046</v>
+      </c>
+      <c r="R35">
+        <f>EXP(INDEX(LINEST(LN(R23:R32),M23:M32),1,2))</f>
+        <v>2.4003877114654135</v>
+      </c>
+      <c r="S35">
+        <f>EXP(INDEX(LINEST(LN(S23:S32),M23:M32),1,2))</f>
+        <v>2.9926021361149933</v>
+      </c>
+      <c r="T35">
+        <f>EXP(INDEX(LINEST(LN(T23:T32),M23:M32),1,2))</f>
+        <v>3.98668356813205</v>
+      </c>
+      <c r="U35">
+        <f>EXP(INDEX(LINEST(LN(U23:U32),M23:M32),1,2))</f>
+        <v>5.2607382563095513</v>
+      </c>
+      <c r="V35">
+        <f>EXP(INDEX(LINEST(LN(V23:V32),M23:M32),1,2))</f>
+        <v>7.9425590191659339</v>
+      </c>
+      <c r="W35">
+        <f>EXP(INDEX(LINEST(LN(W23:W32),M23:M32),1,2))</f>
+        <v>11.218692569116657</v>
+      </c>
+    </row>
+    <row r="36" spans="11:23" x14ac:dyDescent="0.25">
+      <c r="M36" t="s">
+        <v>52</v>
+      </c>
+      <c r="N36">
+        <f>INDEX(LINEST(LN(N23:N32),M23:M32),1)</f>
+        <v>-8.7996664761049864E-3</v>
+      </c>
+      <c r="O36">
+        <f>INDEX(LINEST(LN(O23:O32),M23:M32),1)</f>
+        <v>-1.9035825911147271E-2</v>
+      </c>
+      <c r="P36">
+        <f>INDEX(LINEST(LN(P23:P32),M23:M32),1)</f>
+        <v>-2.2735468321530932E-2</v>
+      </c>
+      <c r="Q36">
+        <f>INDEX(LINEST(LN(Q23:Q32),M23:M32),1)</f>
+        <v>-2.4594584021098393E-2</v>
+      </c>
+      <c r="R36">
+        <f>INDEX(LINEST(LN(R23:R32),M23:M32),1)</f>
+        <v>-2.5401937908698387E-2</v>
+      </c>
+      <c r="S36">
+        <f>INDEX(LINEST(LN(S23:S32),M23:M32),1)</f>
+        <v>-3.4677248266792027E-2</v>
+      </c>
+      <c r="T36">
+        <f>INDEX(LINEST(LN(T23:T32),M23:M32),1)</f>
+        <v>-5.2763543452159917E-2</v>
+      </c>
+      <c r="U36">
+        <f>INDEX(LINEST(LN(U23:U32),M23:M32),1)</f>
+        <v>-6.6948560636488519E-2</v>
+      </c>
+      <c r="V36">
+        <f>INDEX(LINEST(LN(V23:V32),M23:M32),1)</f>
+        <v>-9.8842061779485374E-2</v>
+      </c>
+      <c r="W36">
+        <f>INDEX(LINEST(LN(W23:W32),M23:M32),1)</f>
+        <v>-0.11884790020381489</v>
+      </c>
+    </row>
+    <row r="37" spans="11:23" x14ac:dyDescent="0.25">
+      <c r="M37" t="s">
+        <v>53</v>
+      </c>
+      <c r="N37">
+        <f t="shared" ref="N37:W37" si="10">PEARSON(N23:N32,N41:N50)</f>
+        <v>0.62558586945493011</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="10"/>
+        <v>0.79119576133568637</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="10"/>
+        <v>0.81787481509187843</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="10"/>
+        <v>0.79450645873629877</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="10"/>
+        <v>0.90110886312728489</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="10"/>
+        <v>0.91813104686591851</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="10"/>
+        <v>0.90013422463594983</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="10"/>
+        <v>0.9420463406823234</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="10"/>
+        <v>0.91192995632805585</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="10"/>
+        <v>0.95893803900344698</v>
+      </c>
+    </row>
+    <row r="38" spans="11:23" x14ac:dyDescent="0.25">
+      <c r="M38" t="s">
+        <v>73</v>
+      </c>
+      <c r="N38">
+        <f t="shared" ref="N38:W38" si="11">INT(0.5-LN(N35)/N36)</f>
+        <v>20</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="11"/>
+        <v>24</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="11"/>
+        <v>29</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="11"/>
+        <v>34</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="11"/>
+        <v>32</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="11"/>
+        <v>26</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="11"/>
+        <v>25</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="11"/>
+        <v>21</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="11:23" x14ac:dyDescent="0.25">
+      <c r="M39" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N39" s="2">
+        <f>N38+A22</f>
+        <v>43925</v>
+      </c>
+      <c r="O39" s="2">
+        <f>O38+A22</f>
+        <v>43925</v>
+      </c>
+      <c r="P39" s="2">
+        <f>P38+A22</f>
+        <v>43929</v>
+      </c>
+      <c r="Q39" s="2">
+        <f>Q38+A22</f>
+        <v>43934</v>
+      </c>
+      <c r="R39" s="2">
+        <f>R38+A22</f>
+        <v>43939</v>
+      </c>
+      <c r="S39" s="2">
+        <f>S38+A22</f>
+        <v>43937</v>
+      </c>
+      <c r="T39" s="2">
+        <f>T38+A22</f>
+        <v>43931</v>
+      </c>
+      <c r="U39" s="2">
+        <f>U38+A22</f>
+        <v>43930</v>
+      </c>
+      <c r="V39" s="2">
+        <f>V38+A22</f>
+        <v>43926</v>
+      </c>
+      <c r="W39" s="6">
+        <f>W38+A22</f>
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="41" spans="11:23" x14ac:dyDescent="0.25">
+      <c r="N41">
+        <f>N35*EXP(N36*M23)</f>
+        <v>1.1849561486224691</v>
+      </c>
+      <c r="O41">
+        <f>O35*EXP(O36*M23)</f>
+        <v>1.4365018636177336</v>
+      </c>
+      <c r="P41">
+        <f>P35*EXP(P36*M23)</f>
+        <v>1.6877211618805044</v>
+      </c>
+      <c r="Q41">
+        <f>Q35*EXP(Q36*M23)</f>
+        <v>1.984422270612805</v>
+      </c>
+      <c r="R41">
+        <f>R35*EXP(R36*M23)</f>
+        <v>2.3401811311351626</v>
+      </c>
+      <c r="S41">
+        <f>S35*EXP(S36*M23)</f>
+        <v>2.8906056287742161</v>
+      </c>
+      <c r="T41">
+        <f>T35*EXP(T36*M23)</f>
+        <v>3.7817851342508808</v>
+      </c>
+      <c r="U41">
+        <f>U35*EXP(U36*M23)</f>
+        <v>4.920070251562505</v>
+      </c>
+      <c r="V41">
+        <f>V35*EXP(V36*M23)</f>
+        <v>7.1950511985053289</v>
+      </c>
+      <c r="W41">
+        <f>W35*EXP(W36*M23)</f>
+        <v>9.9615578129036884</v>
+      </c>
+    </row>
+    <row r="42" spans="11:23" x14ac:dyDescent="0.25">
+      <c r="N42">
+        <f>N35*EXP(N36*M24)</f>
+        <v>1.1745746734751494</v>
+      </c>
+      <c r="O42">
+        <f>O35*EXP(O36*M24)</f>
+        <v>1.4094154879065104</v>
+      </c>
+      <c r="P42">
+        <f>P35*EXP(P36*M24)</f>
+        <v>1.6497829367070715</v>
+      </c>
+      <c r="Q42">
+        <f>Q35*EXP(Q36*M24)</f>
+        <v>1.9362115221696496</v>
+      </c>
+      <c r="R42">
+        <f>R35*EXP(R36*M24)</f>
+        <v>2.28148465365111</v>
+      </c>
+      <c r="S42">
+        <f>S35*EXP(S36*M24)</f>
+        <v>2.79208545642103</v>
+      </c>
+      <c r="T42">
+        <f>T35*EXP(T36*M24)</f>
+        <v>3.5874176009263938</v>
+      </c>
+      <c r="U42">
+        <f>U35*EXP(U36*M24)</f>
+        <v>4.6014627797300429</v>
+      </c>
+      <c r="V42">
+        <f>V35*EXP(V36*M24)</f>
+        <v>6.5178945002726998</v>
+      </c>
+      <c r="W42">
+        <f>W35*EXP(W36*M24)</f>
+        <v>8.8452939991416439</v>
+      </c>
+    </row>
+    <row r="43" spans="11:23" x14ac:dyDescent="0.25">
+      <c r="N43">
+        <f>N35*EXP(N36*M25)</f>
+        <v>1.164284151082799</v>
+      </c>
+      <c r="O43">
+        <f>O35*EXP(O36*M25)</f>
+        <v>1.3828398471743022</v>
+      </c>
+      <c r="P43">
+        <f>P35*EXP(P36*M25)</f>
+        <v>1.6126975235749987</v>
+      </c>
+      <c r="Q43">
+        <f>Q35*EXP(Q36*M25)</f>
+        <v>1.889172034652089</v>
+      </c>
+      <c r="R43">
+        <f>R35*EXP(R36*M25)</f>
+        <v>2.2242604025785933</v>
+      </c>
+      <c r="S43">
+        <f>S35*EXP(S36*M25)</f>
+        <v>2.6969231355380976</v>
+      </c>
+      <c r="T43">
+        <f>T35*EXP(T36*M25)</f>
+        <v>3.4030397250439677</v>
+      </c>
+      <c r="U43">
+        <f>U35*EXP(U36*M25)</f>
+        <v>4.3034872736861258</v>
+      </c>
+      <c r="V43">
+        <f>V35*EXP(V36*M25)</f>
+        <v>5.9044678828012165</v>
+      </c>
+      <c r="W43">
+        <f>W35*EXP(W36*M25)</f>
+        <v>7.8541155309969808</v>
+      </c>
+    </row>
+    <row r="44" spans="11:23" x14ac:dyDescent="0.25">
+      <c r="N44">
+        <f>N35*EXP(N36*M26)</f>
+        <v>1.1540837846026255</v>
+      </c>
+      <c r="O44">
+        <f>O35*EXP(O36*M26)</f>
+        <v>1.3567653111102258</v>
+      </c>
+      <c r="P44">
+        <f>P35*EXP(P36*M26)</f>
+        <v>1.5764457521521327</v>
+      </c>
+      <c r="Q44">
+        <f>Q35*EXP(Q36*M26)</f>
+        <v>1.8432753527425831</v>
+      </c>
+      <c r="R44">
+        <f>R35*EXP(R36*M26)</f>
+        <v>2.1684714515005652</v>
+      </c>
+      <c r="S44">
+        <f>S35*EXP(S36*M26)</f>
+        <v>2.6050042208678938</v>
+      </c>
+      <c r="T44">
+        <f>T35*EXP(T36*M26)</f>
+        <v>3.228138081063324</v>
+      </c>
+      <c r="U44">
+        <f>U35*EXP(U36*M26)</f>
+        <v>4.0248076755854942</v>
+      </c>
+      <c r="V44">
+        <f>V35*EXP(V36*M26)</f>
+        <v>5.3487734386576014</v>
+      </c>
+      <c r="W44">
+        <f>W35*EXP(W36*M26)</f>
+        <v>6.9740057006849261</v>
+      </c>
+    </row>
+    <row r="45" spans="11:23" x14ac:dyDescent="0.25">
+      <c r="N45">
+        <f>N35*EXP(N36*M27)</f>
+        <v>1.1439727841730274</v>
+      </c>
+      <c r="O45">
+        <f>O35*EXP(O36*M27)</f>
+        <v>1.3311824309905063</v>
+      </c>
+      <c r="P45">
+        <f>P35*EXP(P36*M27)</f>
+        <v>1.5410088830355479</v>
+      </c>
+      <c r="Q45">
+        <f>Q35*EXP(Q36*M27)</f>
+        <v>1.7984937124341931</v>
+      </c>
+      <c r="R45">
+        <f>R35*EXP(R36*M27)</f>
+        <v>2.114081800189227</v>
+      </c>
+      <c r="S45">
+        <f>S35*EXP(S36*M27)</f>
+        <v>2.5162181677771738</v>
+      </c>
+      <c r="T45">
+        <f>T35*EXP(T36*M27)</f>
+        <v>3.0622256313145333</v>
+      </c>
+      <c r="U45">
+        <f>U35*EXP(U36*M27)</f>
+        <v>3.7641744462687097</v>
+      </c>
+      <c r="V45">
+        <f>V35*EXP(V36*M27)</f>
+        <v>4.8453777488440002</v>
+      </c>
+      <c r="W45">
+        <f>W35*EXP(W36*M27)</f>
+        <v>6.1925184727976648</v>
+      </c>
+    </row>
+    <row r="46" spans="11:23" x14ac:dyDescent="0.25">
+      <c r="N46">
+        <f>N35*EXP(N36*M28)</f>
+        <v>1.1339503668524302</v>
+      </c>
+      <c r="O46">
+        <f>O35*EXP(O36*M28)</f>
+        <v>1.3060819362545084</v>
+      </c>
+      <c r="P46">
+        <f>P35*EXP(P36*M28)</f>
+        <v>1.506368598064705</v>
+      </c>
+      <c r="Q46">
+        <f>Q35*EXP(Q36*M28)</f>
+        <v>1.7548000242354687</v>
+      </c>
+      <c r="R46">
+        <f>R35*EXP(R36*M28)</f>
+        <v>2.0610563513753308</v>
+      </c>
+      <c r="S46">
+        <f>S35*EXP(S36*M28)</f>
+        <v>2.4304581993124521</v>
+      </c>
+      <c r="T46">
+        <f>T35*EXP(T36*M28)</f>
+        <v>2.9048403697746745</v>
+      </c>
+      <c r="U46">
+        <f>U35*EXP(U36*M28)</f>
+        <v>3.5204189625982965</v>
+      </c>
+      <c r="V46">
+        <f>V35*EXP(V36*M28)</f>
+        <v>4.3893587564039391</v>
+      </c>
+      <c r="W46">
+        <f>W35*EXP(W36*M28)</f>
+        <v>5.4986024792285706</v>
+      </c>
+    </row>
+    <row r="47" spans="11:23" x14ac:dyDescent="0.25">
+      <c r="N47">
+        <f>N35*EXP(N36*M29)</f>
+        <v>1.1240157565586588</v>
+      </c>
+      <c r="O47">
+        <f>O35*EXP(O36*M29)</f>
+        <v>1.2814547311453297</v>
+      </c>
+      <c r="P47">
+        <f>P35*EXP(P36*M29)</f>
+        <v>1.4725069908523556</v>
+      </c>
+      <c r="Q47">
+        <f>Q35*EXP(Q36*M29)</f>
+        <v>1.7121678567833598</v>
+      </c>
+      <c r="R47">
+        <f>R35*EXP(R36*M29)</f>
+        <v>2.0093608881001512</v>
+      </c>
+      <c r="S47">
+        <f>S35*EXP(S36*M29)</f>
+        <v>2.3476211777866145</v>
+      </c>
+      <c r="T47">
+        <f>T35*EXP(T36*M29)</f>
+        <v>2.7555440355485534</v>
+      </c>
+      <c r="U47">
+        <f>U35*EXP(U36*M29)</f>
+        <v>3.2924482776048669</v>
+      </c>
+      <c r="V47">
+        <f>V35*EXP(V36*M29)</f>
+        <v>3.9762576399779133</v>
+      </c>
+      <c r="W47">
+        <f>W35*EXP(W36*M29)</f>
+        <v>4.8824447367242403</v>
+      </c>
+    </row>
+    <row r="48" spans="11:23" x14ac:dyDescent="0.25">
+      <c r="N48">
+        <f>N35*EXP(N36*M30)</f>
+        <v>1.114168184008844</v>
+      </c>
+      <c r="O48">
+        <f>O35*EXP(O36*M30)</f>
+        <v>1.2572918914137388</v>
+      </c>
+      <c r="P48">
+        <f>P35*EXP(P36*M30)</f>
+        <v>1.4394065575283075</v>
+      </c>
+      <c r="Q48">
+        <f>Q35*EXP(Q36*M30)</f>
+        <v>1.6705714208542524</v>
+      </c>
+      <c r="R48">
+        <f>R35*EXP(R36*M30)</f>
+        <v>1.9589620516355157</v>
+      </c>
+      <c r="S48">
+        <f>S35*EXP(S36*M30)</f>
+        <v>2.2676074807422322</v>
+      </c>
+      <c r="T48">
+        <f>T35*EXP(T36*M30)</f>
+        <v>2.6139208924710005</v>
+      </c>
+      <c r="U48">
+        <f>U35*EXP(U36*M30)</f>
+        <v>3.0792402199488422</v>
+      </c>
+      <c r="V48">
+        <f>V35*EXP(V36*M30)</f>
+        <v>3.602035216742197</v>
+      </c>
+      <c r="W48">
+        <f>W35*EXP(W36*M30)</f>
+        <v>4.3353318770027975</v>
+      </c>
+    </row>
+    <row r="49" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N49">
+        <f>N35*EXP(N36*M31)</f>
+        <v>1.1044068866598504</v>
+      </c>
+      <c r="O49">
+        <f>O35*EXP(O36*M31)</f>
+        <v>1.2335846610842631</v>
+      </c>
+      <c r="P49">
+        <f>P35*EXP(P36*M31)</f>
+        <v>1.4070501876912553</v>
+      </c>
+      <c r="Q49">
+        <f>Q35*EXP(Q36*M31)</f>
+        <v>1.6299855537634456</v>
+      </c>
+      <c r="R49">
+        <f>R35*EXP(R36*M31)</f>
+        <v>1.909827319957647</v>
+      </c>
+      <c r="S49">
+        <f>S35*EXP(S36*M31)</f>
+        <v>2.1903208811423989</v>
+      </c>
+      <c r="T49">
+        <f>T35*EXP(T36*M31)</f>
+        <v>2.479576571432367</v>
+      </c>
+      <c r="U49">
+        <f>U35*EXP(U36*M31)</f>
+        <v>2.8798388107248236</v>
+      </c>
+      <c r="V49">
+        <f>V35*EXP(V36*M31)</f>
+        <v>3.2630324484514728</v>
+      </c>
+      <c r="W49">
+        <f>W35*EXP(W36*M31)</f>
+        <v>3.8495269270301504</v>
+      </c>
+    </row>
+    <row r="50" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N50">
+        <f>N35*EXP(N36*M32)</f>
+        <v>1.0947311086492326</v>
+      </c>
+      <c r="O50">
+        <f>O35*EXP(O36*M32)</f>
+        <v>1.2103244492822534</v>
+      </c>
+      <c r="P50">
+        <f>P35*EXP(P36*M32)</f>
+        <v>1.375421155564009</v>
+      </c>
+      <c r="Q50">
+        <f>Q35*EXP(Q36*M32)</f>
+        <v>1.5903857041436367</v>
+      </c>
+      <c r="R50">
+        <f>R35*EXP(R36*M32)</f>
+        <v>1.8619249867609231</v>
+      </c>
+      <c r="S50">
+        <f>S35*EXP(S36*M32)</f>
+        <v>2.1156684316450112</v>
+      </c>
+      <c r="T50">
+        <f>T35*EXP(T36*M32)</f>
+        <v>2.3521369722035317</v>
+      </c>
+      <c r="U50">
+        <f>U35*EXP(U36*M32)</f>
+        <v>2.6933499770585465</v>
+      </c>
+      <c r="V50">
+        <f>V35*EXP(V36*M32)</f>
+        <v>2.9559346644248161</v>
+      </c>
+      <c r="W50">
+        <f>W35*EXP(W36*M32)</f>
+        <v>3.418159896947754</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9AFF406-A572-4ABA-A12A-8BB55B0FA807}">
   <sheetPr>
     <tabColor theme="6"/>
@@ -9421,7 +14425,7 @@
   <dimension ref="A1:W49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11719,7 +16723,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{250CF625-9016-412C-B7EF-DD8968E4A146}">
   <sheetPr>
     <tabColor theme="6"/>
@@ -13940,7 +18944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A93E061A-EF42-4F1C-9189-91FA097163FE}">
   <sheetPr>
     <tabColor theme="6"/>
@@ -16125,7 +21129,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="6"/>
@@ -18275,7 +23279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E47E916-1EBA-4113-8160-E1F30637C25A}">
   <sheetPr>
     <tabColor theme="6"/>
@@ -20390,7 +25394,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE508726-679D-4A30-B1B9-70AA2F25C071}">
   <sheetPr>
     <tabColor theme="6"/>
